--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H2">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I2">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J2">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N2">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q2">
-        <v>0.9913373747400001</v>
+        <v>38.56210650532223</v>
       </c>
       <c r="R2">
-        <v>8.922036372659999</v>
+        <v>347.0589585479</v>
       </c>
       <c r="S2">
-        <v>5.78165432004709E-06</v>
+        <v>0.0001390562116977976</v>
       </c>
       <c r="T2">
-        <v>5.781654320047089E-06</v>
+        <v>0.0001390562116977975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H3">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I3">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J3">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N3">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q3">
-        <v>2466.387333674581</v>
+        <v>4010.807442116262</v>
       </c>
       <c r="R3">
-        <v>22197.48600307122</v>
+        <v>36097.26697904636</v>
       </c>
       <c r="S3">
-        <v>0.01438440569880562</v>
+        <v>0.01446310223413352</v>
       </c>
       <c r="T3">
-        <v>0.01438440569880562</v>
+        <v>0.01446310223413352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H4">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I4">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J4">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N4">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q4">
-        <v>3318.71839281405</v>
+        <v>0.8227051885555557</v>
       </c>
       <c r="R4">
-        <v>29868.46553532645</v>
+        <v>7.404346697</v>
       </c>
       <c r="S4">
-        <v>0.0193553506825721</v>
+        <v>2.966701698437256E-06</v>
       </c>
       <c r="T4">
-        <v>0.01935535068257209</v>
+        <v>2.966701698437256E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H5">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I5">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J5">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N5">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="O5">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P5">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q5">
-        <v>1758.844428998175</v>
+        <v>4007.752659543528</v>
       </c>
       <c r="R5">
-        <v>15829.59986098358</v>
+        <v>36069.77393589175</v>
       </c>
       <c r="S5">
-        <v>0.01025789075477469</v>
+        <v>0.01445208658870798</v>
       </c>
       <c r="T5">
-        <v>0.01025789075477469</v>
+        <v>0.01445208658870798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.78801466666667</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H6">
-        <v>56.364044</v>
+        <v>54.90395</v>
       </c>
       <c r="I6">
-        <v>0.04686084480635803</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J6">
-        <v>0.04686084480635802</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05619066666666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N6">
-        <v>0.168572</v>
+        <v>385.837593</v>
       </c>
       <c r="O6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q6">
-        <v>1.055711069463111</v>
+        <v>2353.778657132484</v>
       </c>
       <c r="R6">
-        <v>9.501399625168</v>
+        <v>21184.00791419235</v>
       </c>
       <c r="S6">
-        <v>6.157093055312048E-06</v>
+        <v>0.008487802480157517</v>
       </c>
       <c r="T6">
-        <v>6.157093055312047E-06</v>
+        <v>0.008487802480157515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>56.364044</v>
       </c>
       <c r="I7">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J7">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>139.7989746666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N7">
-        <v>419.396924</v>
+        <v>6.321202</v>
       </c>
       <c r="O7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q7">
-        <v>2626.545186422295</v>
+        <v>39.58761196232089</v>
       </c>
       <c r="R7">
-        <v>23638.90667780066</v>
+        <v>356.288507660888</v>
       </c>
       <c r="S7">
-        <v>0.01531847452827062</v>
+        <v>0.0001427542177677193</v>
       </c>
       <c r="T7">
-        <v>0.01531847452827062</v>
+        <v>0.0001427542177677193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J8">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>188.11053</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N8">
-        <v>564.33159</v>
+        <v>657.462113</v>
       </c>
       <c r="O8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q8">
-        <v>3534.22339659444</v>
+        <v>4117.469273940553</v>
       </c>
       <c r="R8">
-        <v>31808.01056934996</v>
+        <v>37057.22346546497</v>
       </c>
       <c r="S8">
-        <v>0.02061221385332206</v>
+        <v>0.01484772827275998</v>
       </c>
       <c r="T8">
-        <v>0.02061221385332205</v>
+        <v>0.01484772827275998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J9">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>99.694255</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N9">
-        <v>299.082765</v>
+        <v>0.13486</v>
       </c>
       <c r="O9">
-        <v>0.2331157147689297</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P9">
-        <v>0.2331157147689298</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q9">
-        <v>1873.057125122406</v>
+        <v>0.8445838859822222</v>
       </c>
       <c r="R9">
-        <v>16857.51412610166</v>
+        <v>7.601254973840001</v>
       </c>
       <c r="S9">
-        <v>0.01092399933171004</v>
+        <v>3.045596993760781E-06</v>
       </c>
       <c r="T9">
-        <v>0.01092399933171004</v>
+        <v>3.045596993760781E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.82177033333333</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H10">
-        <v>134.465311</v>
+        <v>56.364044</v>
       </c>
       <c r="I10">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J10">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05619066666666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N10">
-        <v>0.168572</v>
+        <v>656.961365</v>
       </c>
       <c r="O10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q10">
-        <v>2.518565156210222</v>
+        <v>4114.333253684451</v>
       </c>
       <c r="R10">
-        <v>22.667086405892</v>
+        <v>37028.99928316006</v>
       </c>
       <c r="S10">
-        <v>1.46887159576143E-05</v>
+        <v>0.01483641968160299</v>
       </c>
       <c r="T10">
-        <v>1.46887159576143E-05</v>
+        <v>0.01483641968160299</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.82177033333333</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H11">
-        <v>134.465311</v>
+        <v>56.364044</v>
       </c>
       <c r="I11">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J11">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7989746666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N11">
-        <v>419.396924</v>
+        <v>385.837593</v>
       </c>
       <c r="O11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q11">
-        <v>6266.037535344818</v>
+        <v>2416.374118745121</v>
       </c>
       <c r="R11">
-        <v>56394.33781810336</v>
+        <v>21747.36706870609</v>
       </c>
       <c r="S11">
-        <v>0.03654463546812728</v>
+        <v>0.00871352375293412</v>
       </c>
       <c r="T11">
-        <v>0.03654463546812728</v>
+        <v>0.00871352375293412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H12">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I12">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J12">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>188.11053</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N12">
-        <v>564.33159</v>
+        <v>6.321202</v>
       </c>
       <c r="O12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q12">
-        <v>8431.446972941609</v>
+        <v>85.53199954243046</v>
       </c>
       <c r="R12">
-        <v>75883.02275647449</v>
+        <v>769.7879958818741</v>
       </c>
       <c r="S12">
-        <v>0.04917368502134904</v>
+        <v>0.0003084311753992638</v>
       </c>
       <c r="T12">
-        <v>0.04917368502134904</v>
+        <v>0.0003084311753992638</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H13">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I13">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J13">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,43 +1243,43 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>99.694255</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N13">
-        <v>299.082765</v>
+        <v>657.462113</v>
       </c>
       <c r="O13">
-        <v>0.2331157147689297</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P13">
-        <v>0.2331157147689298</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q13">
-        <v>4468.473001162767</v>
+        <v>8896.100638499031</v>
       </c>
       <c r="R13">
-        <v>40216.25701046491</v>
+        <v>80064.90574649128</v>
       </c>
       <c r="S13">
-        <v>0.0260609222344334</v>
+        <v>0.03207962857271032</v>
       </c>
       <c r="T13">
-        <v>0.0260609222344334</v>
+        <v>0.03207962857271032</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.760055666666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H14">
-        <v>5.280167</v>
+        <v>121.778737</v>
       </c>
       <c r="I14">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J14">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05619066666666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N14">
-        <v>0.168572</v>
+        <v>0.13486</v>
       </c>
       <c r="O14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q14">
-        <v>0.09889870128044445</v>
+        <v>1.824786719091111</v>
       </c>
       <c r="R14">
-        <v>0.890088311524</v>
+        <v>16.42308047182</v>
       </c>
       <c r="S14">
-        <v>5.767946594922793E-07</v>
+        <v>6.580240326815172E-06</v>
       </c>
       <c r="T14">
-        <v>5.767946594922793E-07</v>
+        <v>6.580240326815172E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.760055666666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H15">
-        <v>5.280167</v>
+        <v>121.778737</v>
       </c>
       <c r="I15">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J15">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>139.7989746666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N15">
-        <v>419.396924</v>
+        <v>656.961365</v>
       </c>
       <c r="O15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q15">
-        <v>246.0539775562565</v>
+        <v>8889.325031943999</v>
       </c>
       <c r="R15">
-        <v>2214.485798006308</v>
+        <v>80003.92528749599</v>
       </c>
       <c r="S15">
-        <v>0.00143503017091029</v>
+        <v>0.03205519551484903</v>
       </c>
       <c r="T15">
-        <v>0.00143503017091029</v>
+        <v>0.03205519551484903</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.760055666666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H16">
-        <v>5.280167</v>
+        <v>121.778737</v>
       </c>
       <c r="I16">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J16">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>188.11053</v>
+        <v>128.612531</v>
       </c>
       <c r="N16">
-        <v>564.33159</v>
+        <v>385.837593</v>
       </c>
       <c r="O16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q16">
-        <v>331.0850042861701</v>
+        <v>5220.757195851116</v>
       </c>
       <c r="R16">
-        <v>2979.765038575531</v>
+        <v>46986.81476266004</v>
       </c>
       <c r="S16">
-        <v>0.001930946107863623</v>
+        <v>0.01882622044386697</v>
       </c>
       <c r="T16">
-        <v>0.001930946107863623</v>
+        <v>0.01882622044386697</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H17">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I17">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J17">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>99.694255</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N17">
-        <v>299.082765</v>
+        <v>6.321202</v>
       </c>
       <c r="O17">
-        <v>0.2331157147689297</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P17">
-        <v>0.2331157147689298</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q17">
-        <v>175.4674384468617</v>
+        <v>1.354193211527334</v>
       </c>
       <c r="R17">
-        <v>1579.206946021755</v>
+        <v>12.187738903746</v>
       </c>
       <c r="S17">
-        <v>0.00102335703199929</v>
+        <v>4.883264815314883E-06</v>
       </c>
       <c r="T17">
-        <v>0.00102335703199929</v>
+        <v>4.883264815314883E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H18">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I18">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J18">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05619066666666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N18">
-        <v>0.168572</v>
+        <v>657.462113</v>
       </c>
       <c r="O18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q18">
-        <v>14.98640673041289</v>
+        <v>140.8483276220277</v>
       </c>
       <c r="R18">
-        <v>134.877660573716</v>
+        <v>1267.634948598249</v>
       </c>
       <c r="S18">
-        <v>8.74033658194309E-05</v>
+        <v>0.0005079036556362979</v>
       </c>
       <c r="T18">
-        <v>8.740336581943089E-05</v>
+        <v>0.0005079036556362981</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H19">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I19">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J19">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>139.7989746666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N19">
-        <v>419.396924</v>
+        <v>0.13486</v>
       </c>
       <c r="O19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q19">
-        <v>37285.2720769052</v>
+        <v>0.02889110275333334</v>
       </c>
       <c r="R19">
-        <v>335567.4486921468</v>
+        <v>0.26001992478</v>
       </c>
       <c r="S19">
-        <v>0.2174542793104197</v>
+        <v>1.041822572658436E-07</v>
       </c>
       <c r="T19">
-        <v>0.2174542793104196</v>
+        <v>1.041822572658436E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H20">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I20">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J20">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>188.11053</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N20">
-        <v>564.33159</v>
+        <v>656.961365</v>
       </c>
       <c r="O20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q20">
-        <v>50170.26990580054</v>
+        <v>140.7410522110717</v>
       </c>
       <c r="R20">
-        <v>451532.4291522048</v>
+        <v>1266.669469899645</v>
       </c>
       <c r="S20">
-        <v>0.2926018579849032</v>
+        <v>0.0005075168170113435</v>
       </c>
       <c r="T20">
-        <v>0.2926018579849031</v>
+        <v>0.0005075168170113435</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H21">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I21">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J21">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>99.694255</v>
+        <v>128.612531</v>
       </c>
       <c r="N21">
-        <v>299.082765</v>
+        <v>385.837593</v>
       </c>
       <c r="O21">
-        <v>0.2331157147689297</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P21">
-        <v>0.2331157147689298</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q21">
-        <v>26589.08930514259</v>
+        <v>82.65811616092101</v>
       </c>
       <c r="R21">
-        <v>239301.8037462833</v>
+        <v>743.923045448289</v>
       </c>
       <c r="S21">
-        <v>0.1550722558881777</v>
+        <v>0.0002980678583476187</v>
       </c>
       <c r="T21">
-        <v>0.1550722558881777</v>
+        <v>0.0002980678583476187</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H22">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I22">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J22">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,33 +1801,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N22">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P22">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q22">
-        <v>2.877720257808</v>
+        <v>823.521516061097</v>
       </c>
       <c r="R22">
-        <v>25.899482320272</v>
+        <v>7411.693644549872</v>
       </c>
       <c r="S22">
-        <v>1.678337182112833E-05</v>
+        <v>0.002969645402003077</v>
       </c>
       <c r="T22">
-        <v>1.678337182112833E-05</v>
+        <v>0.002969645402003077</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H23">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I23">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J23">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N23">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P23">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q23">
-        <v>7159.593670699537</v>
+        <v>85653.67726747101</v>
       </c>
       <c r="R23">
-        <v>64436.34303629583</v>
+        <v>770883.095407239</v>
       </c>
       <c r="S23">
-        <v>0.04175601236343817</v>
+        <v>0.3088699492377679</v>
       </c>
       <c r="T23">
-        <v>0.04175601236343817</v>
+        <v>0.3088699492377679</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H24">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I24">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J24">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N24">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P24">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q24">
-        <v>9633.79712327076</v>
+        <v>17.56946094366223</v>
       </c>
       <c r="R24">
-        <v>86704.17410943685</v>
+        <v>158.12514849296</v>
       </c>
       <c r="S24">
-        <v>0.05618600304545562</v>
+        <v>6.33560482506547E-05</v>
       </c>
       <c r="T24">
-        <v>0.05618600304545562</v>
+        <v>6.33560482506547E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>390.8377786666667</v>
+      </c>
+      <c r="H25">
+        <v>1172.513336</v>
+      </c>
+      <c r="I25">
+        <v>0.8018007787970267</v>
+      </c>
+      <c r="J25">
+        <v>0.8018007787970267</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N25">
+        <v>656.961365</v>
+      </c>
+      <c r="O25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q25">
+        <v>85588.44018880707</v>
+      </c>
+      <c r="R25">
+        <v>770295.9616992637</v>
+      </c>
+      <c r="S25">
+        <v>0.3086347022078894</v>
+      </c>
+      <c r="T25">
+        <v>0.3086347022078894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>390.8377786666667</v>
+      </c>
+      <c r="H26">
+        <v>1172.513336</v>
+      </c>
+      <c r="I26">
+        <v>0.8018007787970267</v>
+      </c>
+      <c r="J26">
+        <v>0.8018007787970267</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>128.612531</v>
+      </c>
+      <c r="N26">
+        <v>385.837593</v>
+      </c>
+      <c r="O26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q26">
+        <v>50266.63592473781</v>
+      </c>
+      <c r="R26">
+        <v>452399.7233226403</v>
+      </c>
+      <c r="S26">
+        <v>0.1812631259011157</v>
+      </c>
+      <c r="T26">
+        <v>0.1812631259011157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>51.213492</v>
-      </c>
-      <c r="H25">
-        <v>153.640476</v>
-      </c>
-      <c r="I25">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="J25">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>99.694255</v>
-      </c>
-      <c r="N25">
-        <v>299.082765</v>
-      </c>
-      <c r="O25">
-        <v>0.2331157147689297</v>
-      </c>
-      <c r="P25">
-        <v>0.2331157147689298</v>
-      </c>
-      <c r="Q25">
-        <v>5105.690930888461</v>
-      </c>
-      <c r="R25">
-        <v>45951.21837799614</v>
-      </c>
-      <c r="S25">
-        <v>0.02977728952783467</v>
-      </c>
-      <c r="T25">
-        <v>0.02977728952783467</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.287273</v>
+      </c>
+      <c r="H27">
+        <v>54.861819</v>
+      </c>
+      <c r="I27">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J27">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>2.107067333333334</v>
+      </c>
+      <c r="N27">
+        <v>6.321202</v>
+      </c>
+      <c r="O27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="P27">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="Q27">
+        <v>38.53251555404867</v>
+      </c>
+      <c r="R27">
+        <v>346.792639986438</v>
+      </c>
+      <c r="S27">
+        <v>0.0001389495057639797</v>
+      </c>
+      <c r="T27">
+        <v>0.0001389495057639797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.287273</v>
+      </c>
+      <c r="H28">
+        <v>54.861819</v>
+      </c>
+      <c r="I28">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J28">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>219.1540376666667</v>
+      </c>
+      <c r="N28">
+        <v>657.462113</v>
+      </c>
+      <c r="O28">
+        <v>0.3852203158260555</v>
+      </c>
+      <c r="P28">
+        <v>0.3852203158260556</v>
+      </c>
+      <c r="Q28">
+        <v>4007.729715862617</v>
+      </c>
+      <c r="R28">
+        <v>36069.56744276355</v>
+      </c>
+      <c r="S28">
+        <v>0.01445200385304753</v>
+      </c>
+      <c r="T28">
+        <v>0.01445200385304753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.287273</v>
+      </c>
+      <c r="H29">
+        <v>54.861819</v>
+      </c>
+      <c r="I29">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J29">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.04495333333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.13486</v>
+      </c>
+      <c r="O29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="P29">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="Q29">
+        <v>0.8220738789266667</v>
+      </c>
+      <c r="R29">
+        <v>7.39866491034</v>
+      </c>
+      <c r="S29">
+        <v>2.964425175359101E-06</v>
+      </c>
+      <c r="T29">
+        <v>2.964425175359101E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.287273</v>
+      </c>
+      <c r="H30">
+        <v>54.861819</v>
+      </c>
+      <c r="I30">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J30">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N30">
+        <v>656.961365</v>
+      </c>
+      <c r="O30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P30">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q30">
+        <v>4004.677277402548</v>
+      </c>
+      <c r="R30">
+        <v>36042.09549662293</v>
+      </c>
+      <c r="S30">
+        <v>0.01444099666056858</v>
+      </c>
+      <c r="T30">
+        <v>0.01444099666056858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.287273</v>
+      </c>
+      <c r="H31">
+        <v>54.861819</v>
+      </c>
+      <c r="I31">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J31">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>128.612531</v>
+      </c>
+      <c r="N31">
+        <v>385.837593</v>
+      </c>
+      <c r="O31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q31">
+        <v>2351.972465617963</v>
+      </c>
+      <c r="R31">
+        <v>21167.75219056167</v>
+      </c>
+      <c r="S31">
+        <v>0.008481289294743869</v>
+      </c>
+      <c r="T31">
+        <v>0.008481289294743869</v>
       </c>
     </row>
   </sheetData>
